--- a/src/main/resources/static/other/studentTemplate.xlsx
+++ b/src/main/resources/static/other/studentTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelliJCode\onlineexam\src\main\resources\static\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F518764A-4D3F-4219-A653-DB525418273E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E6547-4DFC-4366-B708-149B7EA314E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,74 @@
   </si>
   <si>
     <t>16080304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201616080308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹明镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16080308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201616080309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭文海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16080309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201616080310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺宏亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16080310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201616080311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫国韬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16080311</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,6 +809,98 @@
         <v>39</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
